--- a/north-korea-missile-tests-type-20170901/north-korea-missile-tests-type-20170901.xlsx
+++ b/north-korea-missile-tests-type-20170901/north-korea-missile-tests-type-20170901.xlsx
@@ -26,12 +26,24 @@
     <t>North Korea's Missile Tests: 1984-2017</t>
   </si>
   <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>subhed</t>
   </si>
   <si>
     <t>The nation has tested at least 115 missiles, including the August 28 test of a Hwasong-12 missile from Pyongyang Airport. At least 26 "failed".</t>
   </si>
   <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>footnote</t>
   </si>
   <si>
@@ -48,18 +60,6 @@
   </si>
   <si>
     <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Failure</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>ER Scud</t>
@@ -150,27 +150,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FFDDEBF7"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF9BC2E6"/>
       </top>
@@ -179,9 +172,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF9BC2E6"/>
       </bottom>
@@ -192,52 +182,52 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -248,15 +238,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -332,10 +325,10 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -364,10 +357,10 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -396,10 +389,10 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -428,10 +421,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -745,6 +738,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -757,17 +753,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>15</v>
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -894,7 +890,7 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="10">
         <v>2.0</v>
